--- a/patient-clinical-data.xlsx
+++ b/patient-clinical-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T7 Shield/BCNB Project/BCNB Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TangWenqi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F7EF5B-8D72-D245-8FAB-53554F0B2F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BA7985-81CB-4076-95DA-31AC0F6BDEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -484,7 +484,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -555,7 +555,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -836,24 +836,24 @@
   <dimension ref="A1:N1059"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.5" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="2"/>
+    <col min="15" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1">
@@ -4718,7 +4718,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" ht="14.45">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" ht="14.45">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" ht="14.45">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" ht="14.45">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" ht="14.45">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" ht="14.45">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -14901,7 +14901,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" ht="14.45">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" ht="14.45">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" ht="14.45">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -19887,7 +19887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="437" spans="1:14">
+    <row r="437" spans="1:14" ht="14.45">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -21421,7 +21421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="472" spans="1:14">
+    <row r="472" spans="1:14" ht="14.45">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -23870,7 +23870,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="528" spans="1:14">
+    <row r="528" spans="1:14" ht="14.45">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -27662,7 +27662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="615" spans="1:14">
+    <row r="615" spans="1:14" ht="14.45">
       <c r="A615" s="2">
         <v>614</v>
       </c>
@@ -27835,7 +27835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="619" spans="1:14">
+    <row r="619" spans="1:14" ht="14.45">
       <c r="A619" s="2">
         <v>618</v>
       </c>
@@ -30794,7 +30794,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="687" spans="1:14">
+    <row r="687" spans="1:14" ht="14.45">
       <c r="A687" s="2">
         <v>686</v>
       </c>
@@ -33017,7 +33017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="738" spans="1:14">
+    <row r="738" spans="1:14" ht="14.45">
       <c r="A738" s="2">
         <v>737</v>
       </c>
@@ -34938,7 +34938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="782" spans="1:14">
+    <row r="782" spans="1:14" ht="14.45">
       <c r="A782" s="2">
         <v>781</v>
       </c>
@@ -36070,7 +36070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="808" spans="1:14">
+    <row r="808" spans="1:14" ht="14.45">
       <c r="A808" s="2">
         <v>807</v>
       </c>
@@ -36284,7 +36284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="813" spans="1:14">
+    <row r="813" spans="1:14" ht="14.45">
       <c r="A813" s="2">
         <v>812</v>
       </c>
@@ -37146,7 +37146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="833" spans="1:14">
+    <row r="833" spans="1:14" ht="14.45">
       <c r="A833" s="2">
         <v>832</v>
       </c>
@@ -37495,7 +37495,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="841" spans="1:14">
+    <row r="841" spans="1:14" ht="14.45">
       <c r="A841" s="2">
         <v>840</v>
       </c>
